--- a/González Sánchez Rene Aurelio 20212.xlsx
+++ b/González Sánchez Rene Aurelio 20212.xlsx
@@ -5499,7 +5499,7 @@
         <v>116</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -12786,7 +12786,7 @@
         <v>1540</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -12882,7 +12882,7 @@
         <v>1543</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -13074,7 +13074,7 @@
         <v>1548</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11">

--- a/González Sánchez Rene Aurelio 20212.xlsx
+++ b/González Sánchez Rene Aurelio 20212.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1549">
   <si>
     <t>NC</t>
   </si>
@@ -202,9 +202,6 @@
     <t>ALEXANDER</t>
   </si>
   <si>
-    <t>NATALIE</t>
-  </si>
-  <si>
     <t>DARLET VICTORIA</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>garaydelgado80@gmail.com</t>
   </si>
   <si>
-    <t>natigap48@gmail.com</t>
-  </si>
-  <si>
     <t>darletvictoriagarciarodriguez@gmail.com</t>
   </si>
   <si>
@@ -364,9 +358,6 @@
     <t>2721200463</t>
   </si>
   <si>
-    <t>2722018659</t>
-  </si>
-  <si>
     <t>2727212047</t>
   </si>
   <si>
@@ -436,9 +427,6 @@
     <t>2721060576</t>
   </si>
   <si>
-    <t>2721443309</t>
-  </si>
-  <si>
     <t>2711036218</t>
   </si>
   <si>
@@ -493,9 +481,6 @@
     <t>JACQUELIN DELGADO POLITO</t>
   </si>
   <si>
-    <t>KARINA GUADALUPE PEREZ SAN JUAN</t>
-  </si>
-  <si>
     <t>RUTH BAUTISTA APARICIO</t>
   </si>
   <si>
@@ -616,9 +601,6 @@
     <t>2727839804</t>
   </si>
   <si>
-    <t>2721349831</t>
-  </si>
-  <si>
     <t>2711036278</t>
   </si>
   <si>
@@ -2947,6 +2929,9 @@
     <t>CONSUELO DALILA</t>
   </si>
   <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
     <t>JAVIER</t>
   </si>
   <si>
@@ -2989,9 +2974,6 @@
     <t>SANDY SAMARA</t>
   </si>
   <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
     <t>KARLA</t>
   </si>
   <si>
@@ -3034,6 +3016,9 @@
     <t>joanakaory567@gmail.com</t>
   </si>
   <si>
+    <t>fernandacorona771@gmail.com</t>
+  </si>
+  <si>
     <t>cuatramaria7@gmail.com</t>
   </si>
   <si>
@@ -3136,6 +3121,9 @@
     <t>2722370860</t>
   </si>
   <si>
+    <t>2721758700</t>
+  </si>
+  <si>
     <t>2721969745</t>
   </si>
   <si>
@@ -3268,6 +3256,9 @@
     <t>IRENE MINERVA GONZÁLEZ REYES</t>
   </si>
   <si>
+    <t>IRVING CORONA ROQUE</t>
+  </si>
+  <si>
     <t>DANIEL CUATRA CANDELARIA</t>
   </si>
   <si>
@@ -3364,6 +3355,9 @@
     <t>Josealbertocarreraventura@gmail.com</t>
   </si>
   <si>
+    <t>kyo1189@hotmail.com</t>
+  </si>
+  <si>
     <t>Marthacuatra6@gmail.com</t>
   </si>
   <si>
@@ -3434,6 +3428,9 @@
   </si>
   <si>
     <t>2721913160</t>
+  </si>
+  <si>
+    <t>2722867518</t>
   </si>
   <si>
     <t>2294934088</t>
@@ -5027,7 +5024,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5091,19 +5088,19 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -5123,19 +5120,19 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -5155,16 +5152,16 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -5184,19 +5181,19 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -5216,19 +5213,19 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5248,22 +5245,22 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -5283,22 +5280,22 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5318,22 +5315,22 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -5353,22 +5350,22 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5376,31 +5373,28 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>21330051920120</v>
+        <v>21330051920340</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -5408,28 +5402,31 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>21330051920340</v>
+        <v>21330051920341</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -5437,31 +5434,34 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>21330051920341</v>
+        <v>21330051920342</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="I13" t="s">
+        <v>176</v>
       </c>
       <c r="J13" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -5469,95 +5469,92 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>21330051920342</v>
+        <v>21330051920343</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="H14" t="s">
-        <v>160</v>
-      </c>
-      <c r="I14" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>21330051920343</v>
+        <v>21330051920344</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="I15" t="s">
+        <v>177</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>21330051920344</v>
+        <v>21330051920345</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -5565,31 +5562,31 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>21330051920345</v>
+        <v>21330051920346</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
         <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -5597,63 +5594,66 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>21330051920346</v>
+        <v>21330051920347</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>21330051920347</v>
+        <v>21330051920348</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="G19" t="s">
+        <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -5661,34 +5661,31 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>21330051920348</v>
+        <v>21330051920349</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="H20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -5696,95 +5693,98 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>21330051920349</v>
+        <v>21330051920350</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>21330051920350</v>
+        <v>21330051920149</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="G22" t="s">
+        <v>139</v>
       </c>
       <c r="H22" t="s">
-        <v>168</v>
-      </c>
-      <c r="I22" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>21330051920149</v>
+        <v>21330051920351</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -5792,63 +5792,63 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>21330051920351</v>
+        <v>21330051920322</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H24" t="s">
-        <v>170</v>
-      </c>
-      <c r="I24" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="J24" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>21330051920322</v>
+        <v>21330051920174</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H25" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="I25" t="s">
+        <v>100</v>
       </c>
       <c r="J25" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -5856,138 +5856,103 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>21330051920174</v>
+        <v>21330051920352</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="J26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>21330051920352</v>
+        <v>21330051920353</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>21330051920353</v>
+        <v>21330051920354</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
         <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I28" t="s">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="J28" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="K28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29">
-        <v>21330051920354</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" t="s">
-        <v>130</v>
-      </c>
-      <c r="H29" t="s">
-        <v>175</v>
-      </c>
-      <c r="I29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" t="s">
-        <v>207</v>
-      </c>
-      <c r="K29">
         <v>1</v>
       </c>
     </row>
@@ -6053,31 +6018,31 @@
         <v>20330051920368</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="J2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -6088,31 +6053,31 @@
         <v>20330051920156</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -6123,25 +6088,25 @@
         <v>20330051920157</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -6155,28 +6120,28 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H5" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="I5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="J5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -6187,31 +6152,31 @@
         <v>20330051920369</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G6" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H6" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="I6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="J6" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -6222,28 +6187,28 @@
         <v>20330051920160</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -6254,28 +6219,28 @@
         <v>20330051920161</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F8" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G8" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H8" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="I8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -6286,28 +6251,28 @@
         <v>20330051920162</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="I9" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="J9" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -6318,31 +6283,31 @@
         <v>20330051920163</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H10" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="I10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -6353,28 +6318,28 @@
         <v>20330051920164</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E11" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H11" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J11" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -6385,31 +6350,31 @@
         <v>20330051920370</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F12" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H12" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I12" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J12" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -6423,28 +6388,28 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D13" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E13" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F13" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G13" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H13" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I13" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="J13" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -6455,31 +6420,31 @@
         <v>20330051920165</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E14" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F14" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G14" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H14" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I14" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J14" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -6493,25 +6458,25 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E15" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F15" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H15" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="I15" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="J15" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -6522,28 +6487,28 @@
         <v>20330051920166</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D16" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E16" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F16" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H16" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I16" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="J16" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -6554,31 +6519,31 @@
         <v>20330051920168</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F17" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G17" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H17" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="J17" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -6589,28 +6554,28 @@
         <v>20330051920371</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E18" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F18" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G18" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H18" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="J18" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -6621,28 +6586,28 @@
         <v>20330051920171</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D19" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E19" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F19" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H19" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="I19" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="J19" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -6653,28 +6618,28 @@
         <v>20330051920172</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D20" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E20" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F20" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G20" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H20" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="J20" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -6685,31 +6650,31 @@
         <v>20330051920173</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F21" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G21" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H21" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="I21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J21" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -6720,31 +6685,31 @@
         <v>20330051920174</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E22" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H22" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="I22" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="J22" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -6755,31 +6720,31 @@
         <v>20330051920306</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E23" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F23" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G23" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H23" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="I23" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="J23" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -6790,31 +6755,31 @@
         <v>20330051920177</v>
       </c>
       <c r="B24" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E24" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F24" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G24" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H24" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="I24" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="J24" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -6825,25 +6790,25 @@
         <v>20330051920178</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D25" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E25" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F25" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G25" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H25" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -6857,25 +6822,25 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D26" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E26" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F26" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H26" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I26" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="J26" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -6886,31 +6851,31 @@
         <v>20330051920180</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E27" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F27" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G27" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H27" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="I27" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J27" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -6927,25 +6892,25 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E28" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F28" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G28" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H28" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="I28" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="J28" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -6962,22 +6927,22 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E29" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F29" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G29" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H29" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J29" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -6994,25 +6959,25 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E30" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F30" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G30" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H30" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="I30" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="J30" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -7023,31 +6988,31 @@
         <v>20330051920393</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C31" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D31" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E31" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F31" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G31" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H31" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="I31" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J31" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -7058,28 +7023,28 @@
         <v>20330051920182</v>
       </c>
       <c r="B32" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C32" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D32" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E32" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F32" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H32" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="I32" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="J32" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -7090,31 +7055,31 @@
         <v>20330051920183</v>
       </c>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C33" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D33" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E33" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F33" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G33" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H33" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="I33" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J33" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -7125,31 +7090,31 @@
         <v>20330051920184</v>
       </c>
       <c r="B34" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C34" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D34" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E34" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F34" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G34" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H34" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I34" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J34" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -7160,31 +7125,31 @@
         <v>20330051920154</v>
       </c>
       <c r="B35" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D35" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E35" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F35" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G35" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H35" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="I35" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="J35" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -7201,19 +7166,19 @@
         <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E36" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F36" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H36" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="J36" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -7224,28 +7189,28 @@
         <v>20330051920388</v>
       </c>
       <c r="B37" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C37" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D37" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E37" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F37" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H37" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="I37" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="J37" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -7316,28 +7281,28 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="E2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="H2" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="I2" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="J2" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -7348,28 +7313,28 @@
         <v>20330051920040</v>
       </c>
       <c r="B3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D3" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F3" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G3" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="H3" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="J3" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -7380,28 +7345,28 @@
         <v>20330051920042</v>
       </c>
       <c r="B4" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F4" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="H4" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="I4" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="J4" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -7415,28 +7380,28 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D5" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E5" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="G5" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="H5" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="I5" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="J5" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -7447,31 +7412,31 @@
         <v>20330051920044</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D6" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E6" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F6" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G6" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="H6" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="I6" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="J6" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -7482,31 +7447,31 @@
         <v>20330051920045</v>
       </c>
       <c r="B7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="F7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="G7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="H7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="I7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="J7" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -7517,31 +7482,31 @@
         <v>20330051920046</v>
       </c>
       <c r="B8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C8" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D8" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E8" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F8" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G8" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="H8" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="I8" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="J8" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -7552,31 +7517,31 @@
         <v>20330051920048</v>
       </c>
       <c r="B9" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E9" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F9" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="G9" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H9" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="I9" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="J9" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -7587,28 +7552,28 @@
         <v>20330051920050</v>
       </c>
       <c r="B10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E10" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F10" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="H10" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="I10" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="J10" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -7619,31 +7584,31 @@
         <v>20330051920051</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D11" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E11" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F11" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="G11" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="H11" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="I11" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="J11" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -7654,28 +7619,28 @@
         <v>20330051920365</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D12" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E12" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F12" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="H12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="I12" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="J12" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -7689,25 +7654,25 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D13" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E13" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F13" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="H13" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="I13" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="J13" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -7724,25 +7689,25 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E14" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F14" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G14" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="H14" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="I14" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="J14" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -7759,25 +7724,25 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E15" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F15" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="G15" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="H15" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="I15" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="J15" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -7788,31 +7753,31 @@
         <v>20330051920056</v>
       </c>
       <c r="B16" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C16" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F16" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G16" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="H16" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="I16" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="J16" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -7826,28 +7791,28 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D17" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E17" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F17" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="G17" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="H17" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="I17" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="J17" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -7858,25 +7823,25 @@
         <v>20330051920095</v>
       </c>
       <c r="B18" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C18" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D18" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E18" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F18" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="H18" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="J18" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -7890,28 +7855,28 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D19" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E19" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F19" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="G19" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H19" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="I19" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="J19" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -7922,31 +7887,31 @@
         <v>20330051920097</v>
       </c>
       <c r="B20" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C20" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D20" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E20" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F20" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G20" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H20" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="I20" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="J20" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -7957,28 +7922,28 @@
         <v>20330051920099</v>
       </c>
       <c r="B21" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D21" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E21" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F21" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="G21" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="H21" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="I21" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="J21" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -7989,28 +7954,28 @@
         <v>20330051920366</v>
       </c>
       <c r="B22" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E22" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F22" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="H22" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="I22" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="J22" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -8021,31 +7986,31 @@
         <v>20330051920367</v>
       </c>
       <c r="B23" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F23" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G23" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="H23" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="I23" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="J23" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -8056,31 +8021,31 @@
         <v>20330051920100</v>
       </c>
       <c r="B24" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C24" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D24" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="E24" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F24" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G24" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="H24" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="I24" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="J24" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -8091,31 +8056,31 @@
         <v>20330051920101</v>
       </c>
       <c r="B25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C25" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D25" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E25" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F25" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="G25" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="H25" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="I25" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="J25" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -8126,28 +8091,28 @@
         <v>20330051920102</v>
       </c>
       <c r="B26" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C26" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D26" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E26" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F26" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G26" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="H26" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="I26" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -8161,28 +8126,28 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D27" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E27" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F27" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G27" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="H27" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="I27" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="J27" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -8199,22 +8164,22 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="E28" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F28" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G28" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H28" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="J28" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -8231,25 +8196,25 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E29" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F29" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="G29" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H29" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="I29" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J29" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -8266,22 +8231,22 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E30" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F30" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G30" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="H30" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="J30" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -8292,28 +8257,28 @@
         <v>20330051920109</v>
       </c>
       <c r="B31" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C31" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D31" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E31" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="F31" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="H31" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="I31" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="J31" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -8324,28 +8289,28 @@
         <v>20330051920111</v>
       </c>
       <c r="B32" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C32" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D32" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E32" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F32" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="H32" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="I32" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J32" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -8356,31 +8321,31 @@
         <v>20330051920112</v>
       </c>
       <c r="B33" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E33" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="F33" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="G33" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H33" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I33" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="J33" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -8391,31 +8356,31 @@
         <v>20330051920113</v>
       </c>
       <c r="B34" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C34" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D34" t="s">
         <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F34" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G34" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="H34" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="I34" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="J34" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -8483,28 +8448,28 @@
         <v>20330051920187</v>
       </c>
       <c r="B2" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C2" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D2" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E2" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F2" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="H2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="I2" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="J2" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8515,28 +8480,28 @@
         <v>20330051920220</v>
       </c>
       <c r="B3" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="E3" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="F3" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="G3" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="H3" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="J3" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -8547,28 +8512,28 @@
         <v>20330051920221</v>
       </c>
       <c r="B4" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C4" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="D4" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E4" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F4" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="H4" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="I4" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="J4" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -8579,28 +8544,28 @@
         <v>20330051920374</v>
       </c>
       <c r="B5" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C5" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D5" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="E5" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F5" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="H5" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="I5" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="J5" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -8611,31 +8576,31 @@
         <v>20330051920222</v>
       </c>
       <c r="B6" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C6" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D6" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F6" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="G6" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="H6" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="I6" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="J6" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -8649,25 +8614,25 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D7" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E7" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="F7" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="H7" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="I7" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="J7" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -8678,31 +8643,31 @@
         <v>20330051920224</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="E8" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F8" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G8" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="H8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="I8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="J8" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -8713,28 +8678,28 @@
         <v>20330051920225</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D9" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E9" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="F9" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="G9" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="H9" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="J9" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -8751,22 +8716,22 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E10" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F10" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="H10" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="I10" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="J10" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -8780,25 +8745,25 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E11" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="F11" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="G11" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="H11" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="J11" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -8812,28 +8777,28 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D12" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E12" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F12" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="G12" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="H12" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="I12" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="J12" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -8847,28 +8812,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D13" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E13" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F13" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="G13" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="H13" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="I13" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="J13" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -8882,28 +8847,28 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D14" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E14" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F14" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="G14" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="H14" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="I14" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="J14" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -8917,25 +8882,25 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D15" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E15" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F15" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="G15" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="H15" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="J15" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -8949,28 +8914,28 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D16" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E16" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F16" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="G16" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="H16" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I16" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="J16" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -8981,31 +8946,31 @@
         <v>20330051920232</v>
       </c>
       <c r="B17" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C17" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D17" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="E17" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="F17" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="G17" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="H17" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="I17" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J17" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -9016,31 +8981,31 @@
         <v>20330051920233</v>
       </c>
       <c r="B18" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C18" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D18" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E18" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F18" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="G18" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="H18" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="I18" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J18" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -9051,31 +9016,31 @@
         <v>20330051920234</v>
       </c>
       <c r="B19" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C19" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D19" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="E19" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="F19" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="G19" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="H19" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="I19" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="J19" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -9086,31 +9051,31 @@
         <v>20330051920376</v>
       </c>
       <c r="B20" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="C20" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="D20" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E20" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="F20" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="G20" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="H20" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="I20" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="J20" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -9121,31 +9086,31 @@
         <v>20330051920236</v>
       </c>
       <c r="B21" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C21" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="D21" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="E21" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="F21" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="G21" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="H21" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I21" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="J21" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -9156,28 +9121,28 @@
         <v>20330051920237</v>
       </c>
       <c r="B22" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E22" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="F22" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="H22" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="I22" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="J22" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -9191,28 +9156,28 @@
         <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E23" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="F23" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="G23" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="H23" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="I23" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="J23" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -9223,31 +9188,31 @@
         <v>20330051920239</v>
       </c>
       <c r="B24" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D24" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E24" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F24" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="G24" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="H24" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="I24" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="J24" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -9264,25 +9229,25 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E25" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="F25" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="G25" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="H25" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="I25" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="J25" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -9293,31 +9258,31 @@
         <v>20330051920241</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C26" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D26" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E26" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F26" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G26" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="H26" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="I26" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="J26" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -9328,31 +9293,31 @@
         <v>20330051920243</v>
       </c>
       <c r="B27" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E27" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="F27" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="G27" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="H27" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="I27" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="J27" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -9366,22 +9331,22 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D28" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E28" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F28" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="H28" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="J28" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -9398,25 +9363,25 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="E29" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="F29" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="G29" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="H29" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="I29" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="J29" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -9430,28 +9395,28 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="D30" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E30" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F30" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="G30" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="H30" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="I30" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="J30" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -9462,31 +9427,31 @@
         <v>20330051920250</v>
       </c>
       <c r="B31" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E31" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="F31" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="G31" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="H31" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="I31" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="J31" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -9497,28 +9462,28 @@
         <v>20330051920251</v>
       </c>
       <c r="B32" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C32" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D32" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E32" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F32" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="H32" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="I32" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="J32" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -9535,25 +9500,25 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E33" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="F33" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="G33" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="H33" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="I33" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="J33" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -9567,25 +9532,25 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="D34" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E34" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F34" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="G34" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="H34" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="J34" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -9596,28 +9561,28 @@
         <v>20330051920256</v>
       </c>
       <c r="B35" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C35" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="E35" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="F35" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="H35" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="I35" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="J35" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -9628,31 +9593,31 @@
         <v>20330051920257</v>
       </c>
       <c r="B36" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C36" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="D36" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E36" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F36" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="G36" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="H36" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="I36" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="J36" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -9663,25 +9628,25 @@
         <v>20330051920258</v>
       </c>
       <c r="B37" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C37" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D37" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="E37" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="F37" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="G37" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="H37" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -9692,25 +9657,25 @@
         <v>20330051920259</v>
       </c>
       <c r="B38" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C38" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D38" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E38" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F38" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="G38" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="H38" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -9723,7 +9688,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9784,25 +9749,25 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="E2" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="F2" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="G2" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="H2" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="I2" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="J2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -9813,31 +9778,31 @@
         <v>20330051920116</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D3" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="E3" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="F3" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="G3" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="H3" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="I3" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="J3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -9848,28 +9813,28 @@
         <v>20330051920118</v>
       </c>
       <c r="B4" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="E4" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F4" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="H4" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="I4" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="J4" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -9877,69 +9842,66 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>20330051920121</v>
+        <v>20330051920119</v>
       </c>
       <c r="B5" t="s">
-        <v>949</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>959</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>712</v>
+        <v>969</v>
       </c>
       <c r="E5" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="F5" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="G5" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="H5" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="I5" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="J5" t="s">
-        <v>1138</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>20330051920122</v>
+        <v>20330051920121</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>943</v>
       </c>
       <c r="C6" t="s">
-        <v>717</v>
+        <v>953</v>
       </c>
       <c r="D6" t="s">
-        <v>975</v>
+        <v>706</v>
       </c>
       <c r="E6" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="F6" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="G6" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="H6" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="I6" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="J6" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -9947,34 +9909,34 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>20330051920123</v>
+        <v>20330051920122</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>711</v>
       </c>
       <c r="D7" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="E7" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="F7" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="G7" t="s">
-        <v>1070</v>
+        <v>1035</v>
       </c>
       <c r="H7" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="I7" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="J7" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -9982,34 +9944,34 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>20330051920124</v>
+        <v>20330051920123</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>754</v>
+        <v>971</v>
       </c>
       <c r="E8" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F8" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="G8" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="H8" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="I8" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="J8" t="s">
-        <v>1041</v>
+        <v>1139</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -10017,66 +9979,69 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>20330051920125</v>
+        <v>20330051920124</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>977</v>
+        <v>748</v>
       </c>
       <c r="E9" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="F9" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="G9" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="H9" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="I9" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="J9" t="s">
-        <v>1141</v>
+        <v>1037</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>20330051920126</v>
+        <v>20330051920125</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
       <c r="D10" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="E10" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F10" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="G10" t="s">
-        <v>1043</v>
+        <v>1068</v>
       </c>
       <c r="H10" t="s">
-        <v>1087</v>
+        <v>1083</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1116</v>
       </c>
       <c r="J10" t="s">
-        <v>1043</v>
+        <v>1140</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -10084,31 +10049,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>20330051920127</v>
+        <v>20330051920126</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="E11" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="F11" t="s">
-        <v>1044</v>
+        <v>1039</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1039</v>
       </c>
       <c r="H11" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1119</v>
+        <v>1084</v>
       </c>
       <c r="J11" t="s">
-        <v>1142</v>
+        <v>1039</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -10116,66 +10081,63 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>20330051920128</v>
+        <v>20330051920127</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>960</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="E12" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F12" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="H12" t="s">
-        <v>1089</v>
+        <v>1085</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1117</v>
       </c>
       <c r="J12" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>20330051920129</v>
+        <v>20330051920128</v>
       </c>
       <c r="B13" t="s">
-        <v>719</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="D13" t="s">
-        <v>745</v>
+        <v>975</v>
       </c>
       <c r="E13" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="F13" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="G13" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="H13" t="s">
-        <v>1090</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1120</v>
+        <v>1086</v>
       </c>
       <c r="J13" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -10183,130 +10145,133 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>20330051920131</v>
+        <v>20330051920129</v>
       </c>
       <c r="B14" t="s">
-        <v>950</v>
+        <v>713</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>955</v>
       </c>
       <c r="D14" t="s">
-        <v>981</v>
+        <v>739</v>
       </c>
       <c r="E14" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="F14" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="G14" t="s">
-        <v>1073</v>
+        <v>1042</v>
       </c>
       <c r="H14" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="I14" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="J14" t="s">
-        <v>1073</v>
+        <v>1143</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>20330051920132</v>
+        <v>20330051920131</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>944</v>
       </c>
       <c r="C15" t="s">
-        <v>962</v>
+        <v>204</v>
       </c>
       <c r="D15" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="E15" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="F15" t="s">
-        <v>1048</v>
+        <v>1043</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1069</v>
       </c>
       <c r="H15" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="I15" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="J15" t="s">
-        <v>1145</v>
+        <v>1069</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>20330051920133</v>
+        <v>20330051920132</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>956</v>
       </c>
       <c r="D16" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="E16" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="F16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="H16" t="s">
-        <v>1093</v>
+        <v>1089</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1120</v>
       </c>
       <c r="J16" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>20330051920134</v>
+        <v>20330051920133</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>963</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="E17" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="F17" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="G17" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="H17" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="J17" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -10314,31 +10279,31 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>20330051920135</v>
+        <v>20330051920134</v>
       </c>
       <c r="B18" t="s">
-        <v>489</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>491</v>
+        <v>957</v>
       </c>
       <c r="D18" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E18" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F18" t="s">
-        <v>1051</v>
+        <v>1046</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1046</v>
       </c>
       <c r="H18" t="s">
-        <v>1095</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1123</v>
+        <v>1091</v>
       </c>
       <c r="J18" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -10346,31 +10311,31 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920136</v>
+        <v>20330051920135</v>
       </c>
       <c r="B19" t="s">
-        <v>951</v>
+        <v>483</v>
       </c>
       <c r="C19" t="s">
-        <v>953</v>
+        <v>485</v>
       </c>
       <c r="D19" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="E19" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="F19" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="H19" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="I19" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="J19" t="s">
-        <v>1052</v>
+        <v>1147</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -10378,66 +10343,66 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>20330051920137</v>
+        <v>20330051920136</v>
       </c>
       <c r="B20" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="C20" t="s">
-        <v>964</v>
+        <v>947</v>
       </c>
       <c r="D20" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="E20" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="F20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="H20" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="I20" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="J20" t="s">
-        <v>1149</v>
+        <v>1048</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>20330051920139</v>
+        <v>20330051920137</v>
       </c>
       <c r="B21" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="C21" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D21" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="E21" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="F21" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="G21" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="H21" t="s">
-        <v>1098</v>
+        <v>1094</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1123</v>
       </c>
       <c r="J21" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -10445,136 +10410,133 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>19330051920387</v>
+        <v>20330051920139</v>
       </c>
       <c r="B22" t="s">
-        <v>706</v>
+        <v>947</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>959</v>
       </c>
       <c r="D22" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="E22" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="F22" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="G22" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="H22" t="s">
-        <v>880</v>
-      </c>
-      <c r="I22" t="s">
-        <v>911</v>
+        <v>1095</v>
       </c>
       <c r="J22" t="s">
-        <v>941</v>
+        <v>1149</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>20330051920140</v>
+        <v>19330051920387</v>
       </c>
       <c r="B23" t="s">
-        <v>954</v>
+        <v>700</v>
       </c>
       <c r="C23" t="s">
-        <v>491</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="E23" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="F23" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="G23" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="H23" t="s">
-        <v>1099</v>
+        <v>874</v>
       </c>
       <c r="I23" t="s">
-        <v>1126</v>
+        <v>905</v>
       </c>
       <c r="J23" t="s">
-        <v>1151</v>
+        <v>935</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>20330051920141</v>
+        <v>20330051920140</v>
       </c>
       <c r="B24" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="C24" t="s">
-        <v>966</v>
+        <v>485</v>
       </c>
       <c r="D24" t="s">
-        <v>990</v>
+        <v>969</v>
       </c>
       <c r="E24" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="F24" t="s">
-        <v>1057</v>
+        <v>1052</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1052</v>
       </c>
       <c r="H24" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="I24" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="J24" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>20330051920389</v>
+        <v>20330051920141</v>
       </c>
       <c r="B25" t="s">
-        <v>722</v>
+        <v>949</v>
       </c>
       <c r="C25" t="s">
-        <v>704</v>
+        <v>960</v>
       </c>
       <c r="D25" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="E25" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="F25" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="H25" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="I25" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="J25" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -10582,101 +10544,101 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>20330051920142</v>
+        <v>20330051920389</v>
       </c>
       <c r="B26" t="s">
-        <v>227</v>
+        <v>716</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>698</v>
       </c>
       <c r="D26" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="E26" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="F26" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="G26" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="H26" t="s">
-        <v>1102</v>
+        <v>1098</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1126</v>
       </c>
       <c r="J26" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>20330051920143</v>
+        <v>20330051920142</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
-        <v>967</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="E27" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="F27" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="G27" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="H27" t="s">
-        <v>1103</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1026</v>
+        <v>1099</v>
       </c>
       <c r="J27" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>20330051920144</v>
+        <v>20330051920143</v>
       </c>
       <c r="B28" t="s">
-        <v>956</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>961</v>
       </c>
       <c r="D28" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="E28" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="F28" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="G28" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="H28" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="I28" t="s">
-        <v>1129</v>
+        <v>1021</v>
       </c>
       <c r="J28" t="s">
-        <v>1077</v>
+        <v>1154</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -10684,136 +10646,136 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>20330051920387</v>
+        <v>20330051920144</v>
       </c>
       <c r="B29" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="C29" t="s">
-        <v>968</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E29" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="F29" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="G29" t="s">
-        <v>1062</v>
+        <v>1073</v>
       </c>
       <c r="H29" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="I29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="J29" t="s">
-        <v>1156</v>
+        <v>1073</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>20330051920145</v>
+        <v>20330051920387</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>951</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>962</v>
       </c>
       <c r="D30" t="s">
-        <v>995</v>
+        <v>969</v>
       </c>
       <c r="E30" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="F30" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="G30" t="s">
-        <v>1078</v>
+        <v>1058</v>
       </c>
       <c r="H30" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="I30" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="J30" t="s">
-        <v>1078</v>
+        <v>1155</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>20330051920148</v>
+        <v>20330051920145</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="C31" t="s">
-        <v>969</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="E31" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F31" t="s">
-        <v>1064</v>
+        <v>1059</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1074</v>
       </c>
       <c r="H31" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="I31" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="J31" t="s">
-        <v>1157</v>
+        <v>1074</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>20330051920150</v>
+        <v>20330051920148</v>
       </c>
       <c r="B32" t="s">
-        <v>958</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="D32" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="E32" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="F32" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="H32" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="I32" t="s">
-        <v>1031</v>
+        <v>1130</v>
       </c>
       <c r="J32" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -10821,100 +10783,135 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>20330051920151</v>
+        <v>20330051920150</v>
       </c>
       <c r="B33" t="s">
-        <v>229</v>
+        <v>952</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>964</v>
       </c>
       <c r="D33" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="E33" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="F33" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="G33" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="H33" t="s">
-        <v>1109</v>
+        <v>1105</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1026</v>
       </c>
       <c r="J33" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>20330051920153</v>
+        <v>20330051920151</v>
       </c>
       <c r="B34" t="s">
-        <v>249</v>
+        <v>223</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="E34" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="F34" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="G34" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="H34" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1133</v>
+        <v>1106</v>
       </c>
       <c r="J34" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
+        <v>20330051920153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" t="s">
+        <v>993</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
         <v>19330051920145</v>
       </c>
-      <c r="B35" t="s">
-        <v>482</v>
-      </c>
-      <c r="C35" t="s">
-        <v>971</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1134</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1161</v>
-      </c>
-      <c r="K35">
+      <c r="B36" t="s">
+        <v>476</v>
+      </c>
+      <c r="C36" t="s">
+        <v>965</v>
+      </c>
+      <c r="D36" t="s">
+        <v>994</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K36">
         <v>2</v>
       </c>
     </row>
@@ -10980,31 +10977,31 @@
         <v>20330051920041</v>
       </c>
       <c r="B2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -11021,22 +11018,22 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -11047,31 +11044,31 @@
         <v>20330051920072</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="G4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H4" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J4" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -11082,31 +11079,31 @@
         <v>20330051920073</v>
       </c>
       <c r="B5" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C5" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F5" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="G5" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="J5" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -11123,25 +11120,25 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E6" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="G6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I6" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="J6" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -11152,31 +11149,31 @@
         <v>20330051920074</v>
       </c>
       <c r="B7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D7" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F7" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G7" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H7" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I7" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J7" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -11187,31 +11184,31 @@
         <v>20330051920075</v>
       </c>
       <c r="B8" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E8" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F8" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G8" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="I8" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J8" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -11222,28 +11219,28 @@
         <v>19330051920051</v>
       </c>
       <c r="B9" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F9" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I9" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="J9" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -11254,25 +11251,25 @@
         <v>20330051920077</v>
       </c>
       <c r="B10" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C10" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E10" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F10" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="G10" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H10" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -11286,28 +11283,28 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D11" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E11" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G11" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H11" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I11" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="J11" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -11321,28 +11318,28 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D12" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E12" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F12" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G12" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H12" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I12" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="J12" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -11356,28 +11353,28 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="D13" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E13" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="J13" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -11388,28 +11385,28 @@
         <v>20330051920084</v>
       </c>
       <c r="B14" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E14" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F14" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G14" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H14" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="J14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -11420,31 +11417,31 @@
         <v>20330051920087</v>
       </c>
       <c r="B15" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E15" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F15" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G15" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H15" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I15" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J15" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -11455,31 +11452,31 @@
         <v>20330051920088</v>
       </c>
       <c r="B16" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="C16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D16" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E16" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F16" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G16" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H16" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I16" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="J16" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -11490,31 +11487,31 @@
         <v>20330051920089</v>
       </c>
       <c r="B17" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C17" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D17" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E17" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F17" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G17" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H17" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I17" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J17" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -11525,25 +11522,25 @@
         <v>20330051920090</v>
       </c>
       <c r="B18" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="C18" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D18" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E18" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F18" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I18" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -11554,28 +11551,28 @@
         <v>20330051920091</v>
       </c>
       <c r="B19" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E19" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H19" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I19" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="J19" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -11586,31 +11583,31 @@
         <v>20330051920092</v>
       </c>
       <c r="B20" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E20" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F20" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G20" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H20" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I20" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="J20" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -11624,28 +11621,28 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D21" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E21" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F21" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G21" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H21" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I21" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="J21" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -11659,28 +11656,28 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D22" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E22" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F22" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G22" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H22" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I22" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="J22" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -11691,28 +11688,28 @@
         <v>20330051920061</v>
       </c>
       <c r="B23" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E23" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F23" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H23" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I23" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="J23" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -11729,25 +11726,25 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E24" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F24" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G24" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H24" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I24" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="J24" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -11758,31 +11755,31 @@
         <v>20330051920063</v>
       </c>
       <c r="B25" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C25" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D25" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E25" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F25" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G25" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H25" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I25" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="J25" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -11793,31 +11790,31 @@
         <v>20330051920064</v>
       </c>
       <c r="B26" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C26" t="s">
         <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E26" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F26" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G26" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H26" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I26" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="J26" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -11828,31 +11825,31 @@
         <v>20330051920065</v>
       </c>
       <c r="B27" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C27" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D27" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E27" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F27" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G27" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H27" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I27" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="J27" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -11863,31 +11860,31 @@
         <v>20330051920066</v>
       </c>
       <c r="B28" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E28" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F28" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G28" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H28" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I28" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="J28" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -11898,31 +11895,31 @@
         <v>20330051920068</v>
       </c>
       <c r="B29" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E29" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F29" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G29" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H29" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I29" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="J29" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -11933,31 +11930,31 @@
         <v>20330051920070</v>
       </c>
       <c r="B30" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C30" t="s">
         <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E30" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F30" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G30" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H30" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I30" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="J30" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -11968,31 +11965,31 @@
         <v>20330051920069</v>
       </c>
       <c r="B31" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E31" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F31" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G31" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H31" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I31" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="J31" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -12003,31 +12000,31 @@
         <v>20330051920386</v>
       </c>
       <c r="B32" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C32" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D32" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E32" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F32" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="G32" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H32" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I32" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="J32" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -12095,28 +12092,28 @@
         <v>20330051920001</v>
       </c>
       <c r="B2" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="J2" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -12127,31 +12124,31 @@
         <v>20330051920002</v>
       </c>
       <c r="B3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="F3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="I3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="J3" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -12162,31 +12159,31 @@
         <v>20330051920361</v>
       </c>
       <c r="B4" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F4" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="G4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H4" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="I4" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="J4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -12197,28 +12194,28 @@
         <v>20330051920003</v>
       </c>
       <c r="B5" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F5" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H5" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="I5" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J5" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -12229,28 +12226,28 @@
         <v>20330051920004</v>
       </c>
       <c r="B6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C6" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D6" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E6" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F6" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H6" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="I6" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="J6" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -12261,31 +12258,31 @@
         <v>20330051920006</v>
       </c>
       <c r="B7" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E7" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H7" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="I7" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -12296,31 +12293,31 @@
         <v>20330051920007</v>
       </c>
       <c r="B8" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E8" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F8" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G8" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H8" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="I8" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="J8" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -12337,25 +12334,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E9" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F9" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G9" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H9" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="I9" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="J9" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -12366,31 +12363,31 @@
         <v>20330051920009</v>
       </c>
       <c r="B10" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D10" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E10" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F10" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G10" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H10" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="I10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="J10" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -12401,25 +12398,25 @@
         <v>20330051920011</v>
       </c>
       <c r="B11" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C11" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D11" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E11" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="F11" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="G11" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H11" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -12430,28 +12427,28 @@
         <v>20330051920012</v>
       </c>
       <c r="B12" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C12" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D12" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E12" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F12" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G12" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H12" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="J12" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -12468,25 +12465,25 @@
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E13" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="F13" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G13" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H13" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="I13" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="J13" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -12500,28 +12497,28 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D14" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E14" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F14" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G14" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H14" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I14" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="J14" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -12535,25 +12532,25 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D15" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E15" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F15" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H15" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I15" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="J15" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -12564,31 +12561,31 @@
         <v>20330051920016</v>
       </c>
       <c r="B16" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C16" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D16" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E16" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F16" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G16" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H16" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I16" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="J16" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -12599,25 +12596,25 @@
         <v>20330051920017</v>
       </c>
       <c r="B17" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C17" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D17" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E17" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F17" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G17" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H17" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -12631,28 +12628,28 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D18" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E18" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F18" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="G18" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H18" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="I18" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="J18" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -12663,28 +12660,28 @@
         <v>20330051920021</v>
       </c>
       <c r="B19" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C19" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D19" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E19" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F19" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="G19" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H19" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="J19" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -12695,31 +12692,31 @@
         <v>20330051920023</v>
       </c>
       <c r="B20" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C20" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D20" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E20" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F20" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G20" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H20" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="I20" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="J20" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -12730,28 +12727,28 @@
         <v>20330051920025</v>
       </c>
       <c r="B21" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C21" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="D21" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E21" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F21" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G21" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H21" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="J21" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -12768,22 +12765,22 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E22" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F22" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G22" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H22" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="J22" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -12797,25 +12794,25 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D23" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E23" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="F23" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H23" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="I23" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="J23" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -12826,28 +12823,28 @@
         <v>20330051920027</v>
       </c>
       <c r="B24" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E24" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F24" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H24" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="I24" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="J24" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -12858,28 +12855,28 @@
         <v>20330051920028</v>
       </c>
       <c r="B25" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E25" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F25" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H25" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I25" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="J25" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -12893,19 +12890,19 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D26" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E26" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F26" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H26" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -12916,28 +12913,28 @@
         <v>20330051920031</v>
       </c>
       <c r="B27" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C27" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D27" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E27" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F27" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H27" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="I27" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="J27" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -12948,31 +12945,31 @@
         <v>20330051920032</v>
       </c>
       <c r="B28" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C28" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D28" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E28" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F28" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G28" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H28" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="I28" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="J28" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -12983,31 +12980,31 @@
         <v>20330051920033</v>
       </c>
       <c r="B29" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C29" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D29" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E29" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F29" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G29" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H29" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="I29" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="J29" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -13018,28 +13015,28 @@
         <v>20330051920034</v>
       </c>
       <c r="B30" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D30" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E30" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="F30" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H30" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I30" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="J30" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -13056,22 +13053,22 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E31" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F31" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G31" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H31" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="J31" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -13082,31 +13079,31 @@
         <v>20330051920036</v>
       </c>
       <c r="B32" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E32" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F32" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G32" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H32" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="I32" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="J32" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -13120,28 +13117,28 @@
         <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D33" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E33" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="F33" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="G33" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H33" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I33" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="J33" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="K33">
         <v>2</v>

--- a/González Sánchez Rene Aurelio 20212.xlsx
+++ b/González Sánchez Rene Aurelio 20212.xlsx
@@ -5333,7 +5333,7 @@
         <v>191</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -9871,6 +9871,9 @@
       <c r="J5" t="s">
         <v>1136</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
@@ -11479,7 +11482,7 @@
         <v>1274</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -12250,7 +12253,7 @@
         <v>1527</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
